--- a/public/sample/sample_prd02.xlsx
+++ b/public/sample/sample_prd02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E654A-EC98-41FB-9A07-55036DC252C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F4251C-A8E4-43EE-810F-B1FD51E03D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="4440" windowWidth="24165" windowHeight="15435" xr2:uid="{878FEF97-4A63-4B59-82C9-2B0B304D7B87}"/>
+    <workbookView xWindow="2235" yWindow="4785" windowWidth="24165" windowHeight="15435" xr2:uid="{878FEF97-4A63-4B59-82C9-2B0B304D7B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="2397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="2403">
   <si>
     <t>브랜드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7586,6 +7586,30 @@
   </si>
   <si>
     <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7847,6 +7871,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7855,9 +7882,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8178,8 +8202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB05DD9-DEAC-4BB8-A44B-CCD0E12162D2}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8287,7 +8311,7 @@
       <c r="Q5" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="21" t="s">
         <v>2329</v>
       </c>
     </row>
@@ -8414,7 +8438,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8430,40 +8454,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>2340</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>2341</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>2342</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="J7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="J7" s="23" t="s">
         <v>2351</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
@@ -8588,18 +8612,18 @@
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="2:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>2352</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="F20" s="22" t="s">
+      <c r="C20" s="24"/>
+      <c r="F20" s="23" t="s">
         <v>2353</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="J20" s="22" t="s">
+      <c r="G20" s="23"/>
+      <c r="J20" s="23" t="s">
         <v>2354</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
@@ -8774,18 +8798,18 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="23" t="s">
         <v>2361</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="F36" s="22" t="s">
+      <c r="C36" s="23"/>
+      <c r="F36" s="23" t="s">
         <v>2368</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="J36" s="22" t="s">
+      <c r="G36" s="23"/>
+      <c r="J36" s="23" t="s">
         <v>2369</v>
       </c>
-      <c r="K36" s="22"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
@@ -9000,18 +9024,18 @@
       </c>
     </row>
     <row r="56" spans="2:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="23" t="s">
         <v>2370</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="F56" s="22" t="s">
+      <c r="C56" s="23"/>
+      <c r="F56" s="23" t="s">
         <v>2371</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="J56" s="22" t="s">
+      <c r="G56" s="23"/>
+      <c r="J56" s="23" t="s">
         <v>2379</v>
       </c>
-      <c r="K56" s="22"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
@@ -9230,19 +9254,19 @@
       <c r="K70" s="20"/>
     </row>
     <row r="75" spans="2:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="23" t="s">
         <v>2380</v>
       </c>
-      <c r="C75" s="22"/>
+      <c r="C75" s="23"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="22" t="s">
+      <c r="F75" s="23" t="s">
         <v>2382</v>
       </c>
-      <c r="G75" s="22"/>
-      <c r="J75" s="22" t="s">
+      <c r="G75" s="23"/>
+      <c r="J75" s="23" t="s">
         <v>2381</v>
       </c>
-      <c r="K75" s="22"/>
+      <c r="K75" s="23"/>
     </row>
     <row r="76" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
@@ -9809,18 +9833,18 @@
       </c>
     </row>
     <row r="110" spans="2:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="23" t="s">
         <v>2383</v>
       </c>
-      <c r="C110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="C110" s="23"/>
+      <c r="F110" s="23" t="s">
         <v>2384</v>
       </c>
-      <c r="G110" s="22"/>
-      <c r="J110" s="22" t="s">
+      <c r="G110" s="23"/>
+      <c r="J110" s="23" t="s">
         <v>2385</v>
       </c>
-      <c r="K110" s="22"/>
+      <c r="K110" s="23"/>
     </row>
     <row r="111" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
@@ -10043,18 +10067,18 @@
       <c r="G129"/>
     </row>
     <row r="130" spans="2:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="23" t="s">
         <v>2386</v>
       </c>
-      <c r="C130" s="22"/>
-      <c r="F130" s="22" t="s">
+      <c r="C130" s="23"/>
+      <c r="F130" s="23" t="s">
         <v>2387</v>
       </c>
-      <c r="G130" s="22"/>
-      <c r="J130" s="22" t="s">
+      <c r="G130" s="23"/>
+      <c r="J130" s="23" t="s">
         <v>2388</v>
       </c>
-      <c r="K130" s="22"/>
+      <c r="K130" s="23"/>
     </row>
     <row r="131" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
@@ -10090,10 +10114,10 @@
         <v>2389</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>2389</v>
+        <v>2397</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>2389</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.3">
@@ -10110,10 +10134,10 @@
         <v>2390</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>2390</v>
+        <v>2398</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>2390</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
@@ -10130,10 +10154,10 @@
         <v>2391</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>2391</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.3">
@@ -10150,10 +10174,10 @@
         <v>2392</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>2392</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.3">
@@ -10170,10 +10194,10 @@
         <v>2393</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>2393</v>
+        <v>2401</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>2393</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.3">
@@ -10190,10 +10214,10 @@
         <v>2394</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>2394</v>
+        <v>2402</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>2394</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.3">
@@ -10218,6 +10242,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="B130:C130"/>
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="J130:K130"/>
@@ -10230,17 +10265,6 @@
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10262,21 +10286,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2328</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
@@ -10343,21 +10367,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2285</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -10403,21 +10427,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -10687,21 +10711,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2284</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -10866,21 +10890,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -10956,21 +10980,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -11040,21 +11064,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -11140,21 +11164,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2330</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -11709,21 +11733,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -19836,7 +19860,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19846,21 +19870,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>2287</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
